--- a/data/LCIA_Carrying-Capacities.xlsx
+++ b/data/LCIA_Carrying-Capacities.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87FF76-C777-4C85-9E2C-2380139E24B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48073E8-8E03-40DE-894F-106C4C54DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Impact category</t>
   </si>
@@ -71,12 +82,6 @@
   </si>
   <si>
     <t>carrying_capacity_2030</t>
-  </si>
-  <si>
-    <t>carrying_capacity_2040</t>
-  </si>
-  <si>
-    <t>carrying_capacity_2050</t>
   </si>
   <si>
     <t>Unit</t>
@@ -480,23 +485,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>15</v>
@@ -504,19 +510,15 @@
       <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8">
         <v>500.56382763830209</v>
@@ -524,19 +526,15 @@
       <c r="D2" s="8">
         <v>500.56382763830209</v>
       </c>
-      <c r="E2" s="8">
-        <v>500.56382763830209</v>
-      </c>
-      <c r="F2" s="8">
-        <v>500.56382763830209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8">
         <v>128.29067622741437</v>
@@ -544,19 +542,15 @@
       <c r="D3" s="8">
         <v>116.97975988037523</v>
       </c>
-      <c r="E3" s="8">
-        <v>108.70927176776156</v>
-      </c>
-      <c r="F3" s="8">
-        <v>102.72177891440111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9">
         <v>0.7453167588876688</v>
@@ -564,19 +558,15 @@
       <c r="D4" s="9">
         <v>0.67960492573090103</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.63155674658197081</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.596771843278327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>2.9891727560987547</v>
@@ -584,19 +574,15 @@
       <c r="D5" s="9">
         <v>2.7256284052127429</v>
       </c>
-      <c r="E5" s="9">
-        <v>2.5329260321888447</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.393417448705546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>786.42184527405004</v>
@@ -604,19 +590,15 @@
       <c r="D6" s="8">
         <v>717.08592806670015</v>
       </c>
-      <c r="E6" s="8">
-        <v>666.38783593637845</v>
-      </c>
-      <c r="F6" s="8">
-        <v>629.68450474527879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8">
         <v>52.170789027181307</v>
@@ -624,19 +606,15 @@
       <c r="D7" s="8">
         <v>47.571082736761298</v>
       </c>
-      <c r="E7" s="8">
-        <v>44.207799424495335</v>
-      </c>
-      <c r="F7" s="8">
-        <v>41.772920790753489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10">
         <v>7.4766355140186921E-5</v>
@@ -644,19 +622,15 @@
       <c r="D8" s="10">
         <v>7.4766355140186921E-5</v>
       </c>
-      <c r="E8" s="10">
-        <v>7.4766355140186921E-5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>7.4766355140186921E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10">
         <v>4.6184643441869171E-2</v>
@@ -664,19 +638,15 @@
       <c r="D9" s="10">
         <v>4.2112713556935084E-2</v>
       </c>
-      <c r="E9" s="10">
-        <v>3.9135337836394161E-2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3.6979840409184402E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8">
         <v>16630.272844294454</v>
@@ -684,19 +654,15 @@
       <c r="D10" s="8">
         <v>15164.042947456048</v>
       </c>
-      <c r="E10" s="8">
-        <v>14091.942636561684</v>
-      </c>
-      <c r="F10" s="8">
-        <v>13315.786155570513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10">
         <v>1.3913043478260871E-4</v>
@@ -704,19 +670,15 @@
       <c r="D11" s="10">
         <v>1.3913043478260871E-4</v>
       </c>
-      <c r="E11" s="10">
-        <v>1.3913043478260871E-4</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1.3913043478260871E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10">
         <v>5.9259259259259258E-4</v>
@@ -724,19 +686,15 @@
       <c r="D12" s="10">
         <v>5.9259259259259258E-4</v>
       </c>
-      <c r="E12" s="10">
-        <v>5.9259259259259258E-4</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5.9259259259259258E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8">
         <v>76190.476190476198</v>
@@ -744,19 +702,15 @@
       <c r="D13" s="8">
         <v>76190.476190476198</v>
       </c>
-      <c r="E13" s="8">
-        <v>76190.476190476198</v>
-      </c>
-      <c r="F13" s="8">
-        <v>76190.476190476198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8">
         <v>28753.927838610198</v>
@@ -764,19 +718,15 @@
       <c r="D14" s="8">
         <v>26218.799940034038</v>
       </c>
-      <c r="E14" s="8">
-        <v>24365.126505819499</v>
-      </c>
-      <c r="F14" s="8">
-        <v>23023.143265084727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10">
         <v>2.8150585472341835E-2</v>
@@ -784,19 +734,15 @@
       <c r="D15" s="10">
         <v>2.5668652047706936E-2</v>
       </c>
-      <c r="E15" s="10">
-        <v>2.385387415925453E-2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2.2540049692114168E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8">
         <v>1624.8014144202029</v>
@@ -804,19 +750,15 @@
       <c r="D16" s="8">
         <v>1481.5486588849524</v>
       </c>
-      <c r="E16" s="8">
-        <v>1376.8029269387002</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1300.9713299508901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8">
         <v>513.16270490965746</v>
@@ -824,78 +766,74 @@
       <c r="D17" s="8">
         <v>467.91903952150091</v>
       </c>
-      <c r="E17" s="8">
-        <v>434.83708707104626</v>
-      </c>
-      <c r="F17" s="8">
-        <v>410.88711565760445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F34" s="11"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="11"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="11"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="11"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="11"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183" s="11"/>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248" s="11"/>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" s="11"/>
     </row>
   </sheetData>
